--- a/database/industries/folad/kave/product/yearly.xlsx
+++ b/database/industries/folad/kave/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kave\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kave\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8AF8A8-2CA8-4D64-A140-7F585876F77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -287,7 +288,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -299,7 +300,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -346,6 +347,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -381,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -532,17 +567,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -552,7 +587,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -564,7 +599,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -576,7 +611,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -586,7 +621,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -598,7 +633,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -610,7 +645,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -620,7 +655,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -642,7 +677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -652,7 +687,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -676,7 +711,7 @@
         <v>1436174</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
@@ -700,7 +735,7 @@
         <v>1738228</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
@@ -724,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>14</v>
       </c>
@@ -746,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -768,7 +803,7 @@
         <v>3174402</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -778,7 +813,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -788,7 +823,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -798,7 +833,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
@@ -820,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -830,7 +865,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>10</v>
       </c>
@@ -854,7 +889,7 @@
         <v>1415679</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>12</v>
       </c>
@@ -878,7 +913,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
@@ -902,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -926,7 +961,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
@@ -950,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>20</v>
       </c>
@@ -974,7 +1009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>14</v>
       </c>
@@ -996,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1079,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>1418677</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1076,7 +1111,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1086,7 +1121,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1096,7 +1131,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>24</v>
       </c>
@@ -1118,7 +1153,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1128,7 +1163,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>10</v>
       </c>
@@ -1152,7 +1187,7 @@
         <v>187793451</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>12</v>
       </c>
@@ -1176,7 +1211,7 @@
         <v>254801</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>18</v>
       </c>
@@ -1200,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>19</v>
       </c>
@@ -1224,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>20</v>
       </c>
@@ -1272,7 +1307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>23</v>
       </c>
@@ -1344,7 +1379,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1401,7 @@
         <v>188048252</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1376,7 +1411,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1386,7 +1421,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1396,7 +1431,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>26</v>
       </c>
@@ -1418,7 +1453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1428,7 +1463,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1487,7 @@
         <v>132652565</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>12</v>
       </c>
@@ -1476,7 +1511,7 @@
         <v>84990327</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1535,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1559,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>13</v>
       </c>
@@ -1548,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>20</v>
       </c>
@@ -1572,7 +1607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>23</v>
       </c>
@@ -1644,7 +1679,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1654,7 +1689,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1664,7 +1699,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1674,7 +1709,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>29</v>
       </c>
@@ -1696,7 +1731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1706,7 +1741,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>-150878714</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>12</v>
       </c>
@@ -1754,7 +1789,7 @@
         <v>-187569</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +1837,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -1826,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>16</v>
       </c>
@@ -1848,7 +1883,7 @@
         <v>-151066283</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1858,7 +1893,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1868,7 +1903,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1878,7 +1913,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>30</v>
       </c>
@@ -1900,7 +1935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1910,7 +1945,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>10</v>
       </c>
@@ -1934,7 +1969,7 @@
         <v>36914737</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1993,7 @@
         <v>67232</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>20</v>
       </c>
@@ -2006,7 +2041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>14</v>
       </c>
@@ -2030,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>16</v>
       </c>
